--- a/기업분석/에스오에스랩.xlsx
+++ b/기업분석/에스오에스랩.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_project\tele_bot\기업분석\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_project\tele_bot\기업분석\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11EBDA26-B6EF-4C09-AD9E-00B3189C9DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{B41F7827-8B57-4278-8B99-997A7CDFE2AC}"/>
+    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>3D 고정형 ML 라이다
 - ML은 카메라와 유사한 폼팩터 형태를 갖춘 고정형 구조(Solid State)으로 소형화, 저가형 전략
@@ -108,12 +108,44 @@
     <t>https://www.dailyinvest.kr/news/articleView.html?idxno=67024</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>매출액</t>
+  </si>
+  <si>
+    <t>영업이익</t>
+  </si>
+  <si>
+    <t>당기순이익</t>
+  </si>
+  <si>
+    <t>수주잔고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규수주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규수주예상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내년</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,16 +170,63 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Dotum"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4F4F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDF8CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -155,6 +234,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -164,7 +258,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -173,6 +267,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -488,103 +606,238 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DEE7EDB-D5E5-4FB0-8217-B408377EE9B0}">
-  <dimension ref="C4:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <cols>
     <col min="3" max="3" width="75.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:3" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:3" ht="115.5" customHeight="1">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:3" ht="33.75">
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:3" ht="33.75">
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="3:3" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:3" ht="84.4">
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:3">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="3:3" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:3" ht="50.65">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="3:3" ht="66" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:3" ht="67.5">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:3">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="3:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:3" ht="33.75">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="3:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:3" ht="33.75">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:3">
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="3:3" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" ht="50.65">
       <c r="C17" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="3:3" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" ht="50.65">
       <c r="C18" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:3">
       <c r="C19" s="2" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="3">
+        <f>2000*2000000</f>
+        <v>4000000000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C19" r:id="rId1" xr:uid="{24B2F421-4940-4E13-AC9C-6328C8C6A1CF}"/>
+    <hyperlink ref="C19" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B7:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <sheetData>
+    <row r="7" spans="2:9">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5">
+        <v>2022</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2023</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2024</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2025</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2026</v>
+      </c>
+      <c r="H7" s="5">
+        <v>2027</v>
+      </c>
+      <c r="I7" s="5">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="7">
+        <v>23</v>
+      </c>
+      <c r="D8" s="7">
+        <v>41</v>
+      </c>
+      <c r="E8" s="7">
+        <v>49</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="9">
+        <v>-96</v>
+      </c>
+      <c r="D9" s="9">
+        <v>-83</v>
+      </c>
+      <c r="E9" s="9">
+        <v>-128</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="9">
+        <v>-203</v>
+      </c>
+      <c r="D10" s="7">
+        <v>60</v>
+      </c>
+      <c r="E10" s="9">
+        <v>-120</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6">
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>